--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1799.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1799.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152592369781746</v>
+        <v>0.7415746450424194</v>
       </c>
       <c r="B1">
-        <v>2.26966070378818</v>
+        <v>1.586796998977661</v>
       </c>
       <c r="C1">
-        <v>4.515860357616142</v>
+        <v>4.804053783416748</v>
       </c>
       <c r="D1">
-        <v>2.821260509769146</v>
+        <v>2.376134634017944</v>
       </c>
       <c r="E1">
-        <v>1.15419769768151</v>
+        <v>1.184810876846313</v>
       </c>
     </row>
   </sheetData>
